--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6ACEB36-95A5-428C-BD1C-5B0D9A1F767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596D4F6-54FA-4A13-9756-04A019FF4EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Iteración</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Rama (feature/*)</t>
   </si>
   <si>
-    <t>Alcance (conceptual/lógico/físico)</t>
-  </si>
-  <si>
     <t>Autor</t>
   </si>
   <si>
@@ -58,73 +55,43 @@
     <t>Estado (Planificado/En curso/Completado)</t>
   </si>
   <si>
-    <t>Evidencias (links)</t>
-  </si>
-  <si>
     <t>Archivos afectados (ruta)</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>H1 – Bicicletas</t>
   </si>
   <si>
-    <t>feature/h1-bicicletas-conceptual</t>
-  </si>
-  <si>
-    <t>feature/h1-ajuste-kilometraje</t>
-  </si>
-  <si>
-    <t>conceptual</t>
-  </si>
-  <si>
-    <t>lógico</t>
-  </si>
-  <si>
     <t>andr4f</t>
   </si>
   <si>
-    <t>nombre_revisor</t>
-  </si>
-  <si>
-    <t>https://github.com/andr4f/bici-go-bd/pull/12</t>
-  </si>
-  <si>
-    <t>https://github.com/andr4f/bici-go-bd/pull/15</t>
-  </si>
-  <si>
-    <t>v0.1-iter1</t>
-  </si>
-  <si>
-    <t>v0.1.1-h1-ajuste</t>
-  </si>
-  <si>
-    <t>E-R inicial; entidades Bicicleta/TipoUso/TipoAsistencia</t>
-  </si>
-  <si>
-    <t>Agregar atributo kilometraje + CHECK</t>
-  </si>
-  <si>
-    <t>2025-09-27</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
     <t>Completado</t>
   </si>
   <si>
-    <t>modelos/conceptual/er_bicicletas.drawio</t>
-  </si>
-  <si>
-    <t>modelos/logico/der_relacional.pdf</t>
-  </si>
-  <si>
-    <t>sql/iteracion_02/01_alter_add_kilometraje.sql</t>
+    <t>feature/creacion_historias_usuario</t>
+  </si>
+  <si>
+    <t>creacion_de_historias</t>
+  </si>
+  <si>
+    <t>Alcance (conceptual/lógico/físico/creacion_de_historias)</t>
+  </si>
+  <si>
+    <t>Yineth Avila, Angel Trillo, Andres Penagos</t>
+  </si>
+  <si>
+    <t>v0.1-iter1-creacion</t>
+  </si>
+  <si>
+    <t>documentacion/back_logs_historias_usuario/sub_historias_h1/primeras_tres_sub_historias.pdf</t>
+  </si>
+  <si>
+    <t>Creacion primeras 3 historias de usuario a partir de H1 principal</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/3</t>
   </si>
 </sst>
 </file>
@@ -194,12 +161,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -541,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +518,7 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" customWidth="1"/>
@@ -558,8 +526,8 @@
     <col min="9" max="9" width="57.6640625" customWidth="1"/>
     <col min="10" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="42.6640625" customWidth="1"/>
-    <col min="13" max="13" width="41.6640625" customWidth="1"/>
-    <col min="14" max="14" width="47.6640625" customWidth="1"/>
+    <col min="13" max="13" width="81" customWidth="1"/>
+    <col min="14" max="14" width="78.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -573,131 +541,84 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45933</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45933</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{29AA7A1E-9A5B-411F-9740-018B94C7EA1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596D4F6-54FA-4A13-9756-04A019FF4EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B55502-C69B-47FB-8DBB-4E3E48D2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Iteración</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>https://github.com/andr4f/bici-go-bd/pull/3</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>feature/conceptual_h1</t>
+  </si>
+  <si>
+    <t>conceptual</t>
+  </si>
+  <si>
+    <t>Dilan</t>
+  </si>
+  <si>
+    <t>Rafael, José Domingo</t>
   </si>
 </sst>
 </file>
@@ -187,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,9 +242,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,26 +277,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,26 +312,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,24 +494,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="57.6640625" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="57.7109375" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5546875" customWidth="1"/>
+    <col min="14" max="14" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +553,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -613,7 +594,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
   </sheetData>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B55502-C69B-47FB-8DBB-4E3E48D2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B74B62-D337-471A-9D90-EBAA1421C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Iteración</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>https://github.com/andr4f/bici-go-bd/pull/3</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
   <si>
     <t>feature/conceptual_h1</t>
@@ -491,7 +488,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,22 +593,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici_go_bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA985B5E-D943-4949-A1B7-8909F51CF826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8695553-8379-44D1-A5A8-346F620ADB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Iteración</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>documentacion/backlog_historias_usuario/sub_historias_h1</t>
+  </si>
+  <si>
+    <t>feature/modelo_conceptual_iter_2</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/13</t>
+  </si>
+  <si>
+    <t>v0.2-iter2-conceptual</t>
+  </si>
+  <si>
+    <t>Creacion modelo conceptual iteracion 2</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_2</t>
   </si>
 </sst>
 </file>
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,12 +936,54 @@
         <v>57</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45942</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45942</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{3B7A025C-D54F-423D-8940-9A69AB9B1AA0}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{02D14F77-4C92-4034-BDA2-19B8ACA38146}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{B4CEFF8D-DDDE-4135-86C8-D93E07F2D697}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{7B166655-AC2F-4E1E-9B2E-B2C09BE9DBB0}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{2FC91176-81F3-44DC-BD63-6B5F1C8E12C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USAURIO\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BAFF98-5316-45BD-8D97-53DF9DD58263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E624-992E-43AB-9A65-D43ABB0D7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Iteración</t>
   </si>
@@ -248,6 +248,24 @@
   </si>
   <si>
     <t>bici_go_bd/modelos/fisico/iteracion_2</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>feature/creacion_historias_usuario_iter_3</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/16</t>
+  </si>
+  <si>
+    <t>v0.1-iter3-creacion</t>
+  </si>
+  <si>
+    <t>Creacion de 4 historias mas para completar 10, creacion de glosario y alcance de datos</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/</t>
   </si>
 </sst>
 </file>
@@ -667,28 +685,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="73.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5703125" customWidth="1"/>
+    <col min="14" max="14" width="78.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +748,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -771,7 +789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -812,7 +830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -853,7 +871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -894,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -935,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -976,7 +994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1099,7 +1117,48 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45944</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45945</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M12" s="5"/>
     </row>
   </sheetData>
@@ -1111,8 +1170,9 @@
     <hyperlink ref="G8" r:id="rId5" xr:uid="{2FC91176-81F3-44DC-BD63-6B5F1C8E12C4}"/>
     <hyperlink ref="G9" r:id="rId6" xr:uid="{098972D2-BD7A-4375-BA04-41D3B4AA47FD}"/>
     <hyperlink ref="G10" r:id="rId7" xr:uid="{9B0DD17D-E8B4-4021-8258-6728B626103E}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{6330800C-E47B-4EDC-86E4-1378D6CAC5C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E624-992E-43AB-9A65-D43ABB0D7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20526281-47A6-4278-BB9D-D32DD429F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Iteración</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>documentacion/backlog_historias_usuario/</t>
+  </si>
+  <si>
+    <t>feature/conceptual_iteracion_3</t>
+  </si>
+  <si>
+    <t>Angel Trillo</t>
+  </si>
+  <si>
+    <t>v0.2-iter3-conceptual</t>
+  </si>
+  <si>
+    <t>Creacion del modelo conceptual iteración 3</t>
+  </si>
+  <si>
+    <t>completado</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_3</t>
   </si>
 </sst>
 </file>
@@ -335,7 +353,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -343,7 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -363,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +490,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,27 +669,27 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.109375" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5546875" customWidth="1"/>
+    <col min="14" max="14" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +731,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -789,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -830,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -912,7 +895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -953,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -994,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1035,7 +1018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1076,7 +1059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1117,7 +1100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1158,8 +1141,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" s="5"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45945</v>
+      </c>
+      <c r="K12" s="3">
+        <v>45947</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E624-992E-43AB-9A65-D43ABB0D7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBC614-80FE-4821-A70F-4A15044CF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>Iteración</t>
   </si>
@@ -266,6 +266,21 @@
   </si>
   <si>
     <t>documentacion/backlog_historias_usuario/</t>
+  </si>
+  <si>
+    <t>feature/conceptual_iteracion_3</t>
+  </si>
+  <si>
+    <t>Angel Trillo</t>
+  </si>
+  <si>
+    <t>v0.2-iter3-conceptual</t>
+  </si>
+  <si>
+    <t>Creacion del modelo conceptual iteracion 3</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_3</t>
   </si>
 </sst>
 </file>
@@ -335,7 +350,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -343,7 +358,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -363,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +417,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +452,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +487,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,28 +665,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.109375" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5546875" customWidth="1"/>
+    <col min="14" max="14" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +728,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -789,7 +769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -830,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -912,7 +892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -953,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -994,7 +974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1035,7 +1015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1076,7 +1056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1117,7 +1097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1158,8 +1138,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" s="5"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45946</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45948</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBC614-80FE-4821-A70F-4A15044CF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9C1D0-22C9-4241-8720-6A52659AE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,7 @@
         <v>45946</v>
       </c>
       <c r="K12" s="4">
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20526281-47A6-4278-BB9D-D32DD429F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1703CFA-6865-4A80-AF37-283C48508B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Iteración</t>
   </si>
@@ -284,6 +284,24 @@
   </si>
   <si>
     <t>bici_go_bd/modelos/conceptual/iteracion_3</t>
+  </si>
+  <si>
+    <t>feature/fisico_iteracion_3</t>
+  </si>
+  <si>
+    <t>Andres Penagos</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/17</t>
+  </si>
+  <si>
+    <t>v0.3-iter2-fisico</t>
+  </si>
+  <si>
+    <t>modelo fisico iter 3</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/fisico/iteracion_3</t>
   </si>
 </sst>
 </file>
@@ -380,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,9 +438,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +473,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,9 +525,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,30 +718,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="73.140625" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="73.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5703125" customWidth="1"/>
+    <col min="14" max="14" width="78.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +783,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -772,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -813,7 +865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -854,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -895,7 +947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -936,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -977,7 +1029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1018,7 +1070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1059,7 +1111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1141,7 +1193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1177,6 +1229,47 @@
       </c>
       <c r="M12" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="4">
+        <v>45957</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45964</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1189,8 +1282,9 @@
     <hyperlink ref="G9" r:id="rId6" xr:uid="{098972D2-BD7A-4375-BA04-41D3B4AA47FD}"/>
     <hyperlink ref="G10" r:id="rId7" xr:uid="{9B0DD17D-E8B4-4021-8258-6728B626103E}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{6330800C-E47B-4EDC-86E4-1378D6CAC5C3}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{789EAFA2-7BC6-4B8B-B12F-5303FB1F8C4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joroz\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1703CFA-6865-4A80-AF37-283C48508B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6662DAA3-5B87-472C-8381-E034D76EFF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Iteración</t>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>bici_go_bd/modelos/fisico/iteracion_3</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>feature/conceptual_iteracion_4</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>v0.1-iter4-conceptual</t>
+  </si>
+  <si>
+    <t>creación del modelo conceptual iteración 4</t>
+  </si>
+  <si>
+    <t>bici-go-bd\modelos\conceptual\iteracion_4</t>
   </si>
 </sst>
 </file>
@@ -398,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,9 +456,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,26 +491,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,26 +526,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,30 +702,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="33.86328125" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="73.109375" customWidth="1"/>
+    <col min="9" max="9" width="73.1328125" customWidth="1"/>
     <col min="10" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="42.6640625" customWidth="1"/>
     <col min="13" max="13" width="81" customWidth="1"/>
-    <col min="14" max="14" width="78.5546875" customWidth="1"/>
+    <col min="14" max="14" width="78.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +767,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -824,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -865,7 +849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -906,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -947,7 +931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -988,7 +972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1029,7 +1013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1070,7 +1054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1111,7 +1095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1152,7 +1136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1193,7 +1177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1231,7 +1215,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1270,6 +1254,41 @@
       </c>
       <c r="M13" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45966</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45966</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1703CFA-6865-4A80-AF37-283C48508B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C100973-2A21-400A-8772-55EC1A71969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>Iteración</t>
   </si>
@@ -302,6 +302,63 @@
   </si>
   <si>
     <t>bici_go_bd/modelos/fisico/iteracion_3</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>H2 – Bicicletas</t>
+  </si>
+  <si>
+    <t>feature/creacion_historias_iter4</t>
+  </si>
+  <si>
+    <t>feature/modelo_conceptual_iter_4</t>
+  </si>
+  <si>
+    <t>feature/modelo_logico_iter_4</t>
+  </si>
+  <si>
+    <t>feature/modelo_fisico_iter_4</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/18</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/19</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/20</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/21</t>
+  </si>
+  <si>
+    <t>v0.4-iter4-creacion</t>
+  </si>
+  <si>
+    <t>v0.4-iter4-conceptual</t>
+  </si>
+  <si>
+    <t>v0.4-iter4-logico</t>
+  </si>
+  <si>
+    <t>v0.4-iter4-fisico</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/sub_historias_h2</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_4</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/logico/iteracion_4</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/fisico/iteracion_4</t>
   </si>
 </sst>
 </file>
@@ -718,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,6 +1329,158 @@
         <v>93</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45970</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45971</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45971</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45972</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="4">
+        <v>45972</v>
+      </c>
+      <c r="K16" s="4">
+        <v>45973</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="4">
+        <v>45973</v>
+      </c>
+      <c r="K17" s="4">
+        <v>45973</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{3B7A025C-D54F-423D-8940-9A69AB9B1AA0}"/>
@@ -1283,8 +1492,12 @@
     <hyperlink ref="G10" r:id="rId7" xr:uid="{9B0DD17D-E8B4-4021-8258-6728B626103E}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{6330800C-E47B-4EDC-86E4-1378D6CAC5C3}"/>
     <hyperlink ref="G13" r:id="rId9" xr:uid="{789EAFA2-7BC6-4B8B-B12F-5303FB1F8C4A}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{BB1E9A1F-EB27-43FA-882C-4BECADBDA144}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{28AC0E76-F172-4AC6-A400-5242DB30D08F}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{D6E6786F-B6BE-44A0-9103-E121A9C2F05E}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{8C2D6808-8B6B-439D-BF19-F35CF67450C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/documentacion/bitacora_iteraciones_template.xlsx
+++ b/documentacion/bitacora_iteraciones_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C100973-2A21-400A-8772-55EC1A71969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D796DBA-5C46-4A99-8251-E8A3DEDC8C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
   <si>
     <t>Iteración</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Alcance (conceptual/lógico/físico/creacion_de_historias)</t>
   </si>
   <si>
-    <t>Yineth Avila, Angel Trillo, Andres Penagos</t>
-  </si>
-  <si>
     <t>v0.1-iter1-creacion</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>andr4f, Angel Trillo, Yineth Avila</t>
-  </si>
-  <si>
     <t>https://github.com/andr4f/bici-go-bd/pull/12</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Creacion segundas 3 historias para un total de 6</t>
   </si>
   <si>
-    <t>documentacion/backlog_historias_usuario/sub_historias_h1</t>
-  </si>
-  <si>
     <t>feature/modelo_conceptual_iter_2</t>
   </si>
   <si>
@@ -349,9 +340,6 @@
     <t>v0.4-iter4-fisico</t>
   </si>
   <si>
-    <t>documentacion/backlog_historias_usuario/sub_historias_h2</t>
-  </si>
-  <si>
     <t>bici_go_bd/modelos/conceptual/iteracion_4</t>
   </si>
   <si>
@@ -359,6 +347,129 @@
   </si>
   <si>
     <t>bici_go_bd/modelos/fisico/iteracion_4</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>H3 – Bicicletas</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>H4,H5 - Bicicletas</t>
+  </si>
+  <si>
+    <t>feature/creacion_historias_iter5</t>
+  </si>
+  <si>
+    <t>feature/modelo_conceptual_iter5</t>
+  </si>
+  <si>
+    <t>feature/modelo_logico_iter5</t>
+  </si>
+  <si>
+    <t>feature/modelo_fisico_iter5</t>
+  </si>
+  <si>
+    <t>feature/creacion_historias_iter6</t>
+  </si>
+  <si>
+    <t>feature/modelo_conceptual_iter6</t>
+  </si>
+  <si>
+    <t>feature/modelo_logico_iter6</t>
+  </si>
+  <si>
+    <t>feature/modelo_fisico_iter6</t>
+  </si>
+  <si>
+    <t>andr4f, Angel Trillo</t>
+  </si>
+  <si>
+    <t>Angel Trillo, Andres Penagos</t>
+  </si>
+  <si>
+    <t>Angel Trillo, Jose Domingo, Rafael Camargo, Dillan Linero</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/22</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/23</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/24</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/25</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/26</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/27</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/28</t>
+  </si>
+  <si>
+    <t>https://github.com/andr4f/bici-go-bd/pull/29</t>
+  </si>
+  <si>
+    <t>v0.5-iter5-creacion</t>
+  </si>
+  <si>
+    <t>v0.5-iter5-conceptual</t>
+  </si>
+  <si>
+    <t>v0.5-iter5-logico</t>
+  </si>
+  <si>
+    <t>v0.5-iter5-fisico</t>
+  </si>
+  <si>
+    <t>v0.6-iter6-creacion</t>
+  </si>
+  <si>
+    <t>v0.6-iter6-conceptual</t>
+  </si>
+  <si>
+    <t>v0.6-iter6-logico</t>
+  </si>
+  <si>
+    <t>v0.6-iter6-fisico</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_5</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/logico/iteracion_5</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/fisico/iteracion_5</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/conceptual/iteracion_6</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/logico/iteracion_6</t>
+  </si>
+  <si>
+    <t>bici_go_bd/modelos/fisico/iteracion_6</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/historias_h1_general</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/historias_h2_general</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/historias_h3_general</t>
+  </si>
+  <si>
+    <t>documentacion/backlog_historias_usuario/historias_h4yh5_general</t>
   </si>
 </sst>
 </file>
@@ -775,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +899,7 @@
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="73.109375" customWidth="1"/>
@@ -857,16 +968,16 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3">
         <v>45933</v>
@@ -878,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -889,25 +1000,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="3">
         <v>45935</v>
@@ -919,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -930,25 +1041,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>45936</v>
@@ -960,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -971,25 +1082,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
       </c>
       <c r="J5" s="3">
         <v>45939</v>
@@ -1001,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1012,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1024,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
       </c>
       <c r="J6" s="4">
         <v>45942</v>
@@ -1042,12 +1153,12 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1062,16 +1173,16 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
       </c>
       <c r="J7" s="4">
         <v>45942</v>
@@ -1083,36 +1194,36 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J8" s="4">
         <v>45942</v>
@@ -1124,36 +1235,36 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
       </c>
       <c r="J9" s="4">
         <v>45942</v>
@@ -1165,36 +1276,36 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
         <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
       </c>
       <c r="J10" s="4">
         <v>45942</v>
@@ -1206,18 +1317,18 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1226,16 +1337,16 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J11" s="4">
         <v>45944</v>
@@ -1247,33 +1358,33 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
         <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
       </c>
       <c r="J12" s="3">
         <v>45945</v>
@@ -1282,39 +1393,39 @@
         <v>45947</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
       </c>
       <c r="J13" s="4">
         <v>45957</v>
@@ -1326,18 +1437,18 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1346,13 +1457,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J14" s="4">
         <v>45970</v>
@@ -1364,33 +1475,33 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J15" s="4">
         <v>45971</v>
@@ -1402,33 +1513,33 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="4">
         <v>45972</v>
@@ -1440,33 +1551,33 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J17" s="4">
         <v>45973</v>
@@ -1478,7 +1589,311 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="4">
+        <v>45974</v>
+      </c>
+      <c r="K18" s="4">
+        <v>45974</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="4">
+        <v>45975</v>
+      </c>
+      <c r="K19" s="4">
+        <v>45975</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="4">
+        <v>45975</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45975</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="4">
+        <v>45976</v>
+      </c>
+      <c r="K21" s="4">
+        <v>45976</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
         <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="4">
+        <v>45977</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45977</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="4">
+        <v>45977</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45977</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="4">
+        <v>45977</v>
+      </c>
+      <c r="K24" s="4">
+        <v>45977</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="4">
+        <v>45977</v>
+      </c>
+      <c r="K25" s="4">
+        <v>45978</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1496,8 +1911,16 @@
     <hyperlink ref="G15" r:id="rId11" xr:uid="{28AC0E76-F172-4AC6-A400-5242DB30D08F}"/>
     <hyperlink ref="G16" r:id="rId12" xr:uid="{D6E6786F-B6BE-44A0-9103-E121A9C2F05E}"/>
     <hyperlink ref="G17" r:id="rId13" xr:uid="{8C2D6808-8B6B-439D-BF19-F35CF67450C2}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{62988DCC-9A90-4C8F-8781-AE6D82FF094C}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{2E2D141C-E818-4578-B590-B46D1471D902}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{F147B2A4-B51C-43E0-9EB9-AF503F5C6C2A}"/>
+    <hyperlink ref="G21" r:id="rId17" xr:uid="{24124E0A-FB27-4D74-A51B-886B4FFF0881}"/>
+    <hyperlink ref="G22" r:id="rId18" xr:uid="{FD0540D1-E60C-492E-A620-20279F6A198F}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{A364D86F-36F9-450D-9B1E-714B7DD890B4}"/>
+    <hyperlink ref="G24" r:id="rId20" xr:uid="{526373C5-2EB3-4348-9414-18A673647D84}"/>
+    <hyperlink ref="G25" r:id="rId21" xr:uid="{A67A61BA-518A-4223-A5BC-D3B0B187A20F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>